--- a/docs/pd-chuck.xlsx
+++ b/docs/pd-chuck.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/projects/pd-chuck/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/projects/pd-chuck/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5549334-F26E-EF41-93F3-FFD3F75FD3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A7650-FAB8-C94D-95E2-07857B8DF879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="16920" windowHeight="17500" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
+    <workbookView xWindow="19500" yWindow="2340" windowWidth="16920" windowHeight="17500" activeTab="3" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="cheatsheet" sheetId="3" r:id="rId1"/>
     <sheet name="matrix" sheetId="4" r:id="rId2"/>
     <sheet name="cmds" sheetId="7" r:id="rId3"/>
+    <sheet name="deps" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="191">
   <si>
     <t>full</t>
   </si>
@@ -542,19 +543,100 @@
   </si>
   <si>
     <t>faust</t>
+  </si>
+  <si>
+    <t>-framework Accelerate</t>
+  </si>
+  <si>
+    <t>-framework CoreMIDI</t>
+  </si>
+  <si>
+    <t>-framework CoreAudio</t>
+  </si>
+  <si>
+    <t>-framework CoreFoundation</t>
+  </si>
+  <si>
+    <t>samplerate</t>
+  </si>
+  <si>
+    <t>rubberband</t>
+  </si>
+  <si>
+    <t>sndfile</t>
+  </si>
+  <si>
+    <t>mp3lame</t>
+  </si>
+  <si>
+    <t>mpg123</t>
+  </si>
+  <si>
+    <t>opus</t>
+  </si>
+  <si>
+    <t>vorbisfile</t>
+  </si>
+  <si>
+    <t>vorbisenc</t>
+  </si>
+  <si>
+    <t>vorbis</t>
+  </si>
+  <si>
+    <t>ogg</t>
+  </si>
+  <si>
+    <t>FLAC</t>
+  </si>
+  <si>
+    <t>portaudiocpp</t>
+  </si>
+  <si>
+    <t>portaudio</t>
+  </si>
+  <si>
+    <t>intl</t>
+  </si>
+  <si>
+    <t>gthread</t>
+  </si>
+  <si>
+    <t>glib</t>
+  </si>
+  <si>
+    <t>fluidsynth</t>
+  </si>
+  <si>
+    <t>dependency</t>
+  </si>
+  <si>
+    <t>faustwithllvm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -745,62 +827,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CC7E2417-94BB-CB48-AE88-53E7C4BC4FC5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1135,7 +1240,7 @@
   </sheetPr>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
@@ -1164,10 +1269,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -1334,10 +1439,10 @@
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -1436,10 +1541,10 @@
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
@@ -1598,10 +1703,10 @@
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
@@ -2305,10 +2410,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -2325,8 +2430,8 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
@@ -2339,8 +2444,8 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
         <v>127</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2357,8 +2462,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="18" t="s">
         <v>0</v>
       </c>
@@ -2371,8 +2476,8 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="18" t="s">
         <v>1</v>
       </c>
@@ -2385,8 +2490,8 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
@@ -2399,10 +2504,10 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -2419,8 +2524,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="18" t="s">
         <v>122</v>
       </c>
@@ -2433,8 +2538,8 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="18" t="s">
         <v>123</v>
       </c>
@@ -2447,8 +2552,8 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="18" t="s">
         <v>124</v>
       </c>
@@ -2461,8 +2566,8 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="27" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -2479,8 +2584,8 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="18" t="s">
         <v>122</v>
       </c>
@@ -2493,8 +2598,8 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="18" t="s">
         <v>123</v>
       </c>
@@ -2507,8 +2612,8 @@
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="18" t="s">
         <v>124</v>
       </c>
@@ -2532,4 +2637,321 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA8497-E39A-3C4C-A3E3-BEA3FBC76317}">
+  <dimension ref="B3:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="19"/>
+    <col min="2" max="2" width="24.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21">
+        <v>1</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:E25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/pd-chuck.xlsx
+++ b/docs/pd-chuck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/projects/pd-chuck/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A7650-FAB8-C94D-95E2-07857B8DF879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D649741B-B2EB-6F40-A52A-8F5D00306482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19500" yWindow="2340" windowWidth="16920" windowHeight="17500" activeTab="3" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
+    <workbookView xWindow="8860" yWindow="2020" windowWidth="16560" windowHeight="16840" activeTab="3" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="cheatsheet" sheetId="3" r:id="rId1"/>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA8497-E39A-3C4C-A3E3-BEA3FBC76317}">
   <dimension ref="B3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
